--- a/Assets/Resources/BasicData/level-exp.xlsx
+++ b/Assets/Resources/BasicData/level-exp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19860" windowHeight="11145"/>
+    <workbookView windowWidth="28125" windowHeight="11145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -963,10 +963,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1481,6 +1481,506 @@
         <v>574586</v>
       </c>
     </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <f t="shared" ref="A52:A83" si="2">ROW(A52)-1</f>
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ref="B52:B83" si="3">ROUND(B51*1.25,0)</f>
+        <v>718233</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="3"/>
+        <v>897791</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="3"/>
+        <v>1122239</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="3"/>
+        <v>1402799</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="3"/>
+        <v>1753499</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="3"/>
+        <v>2191874</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="3"/>
+        <v>2739843</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="3"/>
+        <v>3424804</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="3"/>
+        <v>4281005</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="3"/>
+        <v>5351256</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="3"/>
+        <v>6689070</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="3"/>
+        <v>8361338</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="3"/>
+        <v>10451673</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="3"/>
+        <v>13064591</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="3"/>
+        <v>16330739</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="3"/>
+        <v>20413424</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="3"/>
+        <v>25516780</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="3"/>
+        <v>31895975</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="3"/>
+        <v>39869969</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="3"/>
+        <v>49837461</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="3"/>
+        <v>62296826</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="3"/>
+        <v>77871033</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="3"/>
+        <v>97338791</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="3"/>
+        <v>121673489</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="3"/>
+        <v>152091861</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="3"/>
+        <v>190114826</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="3"/>
+        <v>237643533</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="3"/>
+        <v>297054416</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="3"/>
+        <v>371318020</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="3"/>
+        <v>464147525</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="3"/>
+        <v>580184406</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="3"/>
+        <v>725230508</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <f t="shared" ref="A84:A100" si="4">ROW(A84)-1</f>
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <f t="shared" ref="B84:B100" si="5">ROUND(B83*1.25,0)</f>
+        <v>906538135</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="5"/>
+        <v>1133172669</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="5"/>
+        <v>1416465836</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="5"/>
+        <v>1770582295</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <f t="shared" si="4"/>
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="5"/>
+        <v>2213227869</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="5"/>
+        <v>2766534836</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <f t="shared" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="5"/>
+        <v>3458168545</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="5"/>
+        <v>4322710681</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="5"/>
+        <v>5403388351</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="5"/>
+        <v>6754235439</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <f t="shared" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="5"/>
+        <v>8442794299</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="5"/>
+        <v>10553492874</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="5"/>
+        <v>13191866093</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="5"/>
+        <v>16489832616</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="5"/>
+        <v>20612290770</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="5"/>
+        <v>25765363463</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="5"/>
+        <v>32206704329</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <f>ROW(A101)-1</f>
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <f>ROUND(B100*1.25,0)</f>
+        <v>40258380411</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
